--- a/Hemolysis_Plots/20240201_Hemolysis_DIPLibrary_pDNA5ng.xlsx
+++ b/Hemolysis_Plots/20240201_Hemolysis_DIPLibrary_pDNA5ng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Hemolysis_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EACBCF6-191A-C44A-A1C7-E0E22C6BBEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ACED59-CB7A-4841-BF8C-3B69BE7B5C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24480" yWindow="1080" windowWidth="25600" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -541,14 +541,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1019,7 +1018,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="31" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="7">
@@ -1063,7 +1062,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="31"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="11">
         <v>4.2999999999999997E-2</v>
       </c>
@@ -1105,7 +1104,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="31" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="7">
@@ -1149,7 +1148,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="31"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="12">
         <v>0.04</v>
       </c>
@@ -1191,7 +1190,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="7">
@@ -1235,7 +1234,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="31"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="13">
         <v>0.04</v>
       </c>
@@ -1277,7 +1276,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="7">
@@ -1321,7 +1320,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="31"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="13">
         <v>4.1000000000000002E-2</v>
       </c>
@@ -1363,7 +1362,7 @@
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="7">
@@ -1407,7 +1406,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="31"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="12">
         <v>3.9E-2</v>
       </c>
@@ -1449,7 +1448,7 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="7">
@@ -1493,7 +1492,7 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="31"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="14">
         <v>3.7999999999999999E-2</v>
       </c>
@@ -1535,7 +1534,7 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C38" s="7">
@@ -1579,7 +1578,7 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="31"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="19">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -1621,7 +1620,7 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="31" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="7">
@@ -1665,7 +1664,7 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B41" s="31"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="19">
         <v>4.3999999999999997E-2</v>
       </c>
@@ -1726,7 +1725,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7563D2-27A8-6845-8984-3CEB33CADF29}">
-  <dimension ref="B2:U33"/>
+  <dimension ref="B2:U31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="T5" sqref="T5:U24"/>
@@ -3041,50 +3040,21 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-    </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="32"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="32"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3096,7 +3066,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Hemolysis_Plots/20240201_Hemolysis_DIPLibrary_pDNA5ng.xlsx
+++ b/Hemolysis_Plots/20240201_Hemolysis_DIPLibrary_pDNA5ng.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Hemolysis_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ACED59-CB7A-4841-BF8C-3B69BE7B5C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6656D5-5552-5A45-A4CF-CE703BFEABCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="1080" windowWidth="25600" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23520" yWindow="1500" windowWidth="25600" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -242,9 +242,6 @@
     <t>G3-7.5</t>
   </si>
   <si>
-    <t>polyplex</t>
-  </si>
-  <si>
     <t>N/P ratio</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Polymer</t>
   </si>
 </sst>
 </file>
@@ -3066,20 +3066,20 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>42</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="28">
         <v>1</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="28">
         <v>5</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="28">
         <v>7.5</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="29">
         <v>10</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="10" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="11" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="29">
         <v>5</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="12" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="29">
         <v>7.5</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="13" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="29">
         <v>10</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="14" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="29">
         <v>1</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="15" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="29">
         <v>5</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="16" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="29">
         <v>7.5</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="17" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="29">
         <v>10</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="18" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="29">
         <v>1</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="19" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="29">
         <v>5</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="20" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="29">
         <v>7.5</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="21" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="29">
         <v>10</v>
